--- a/export_pr.xlsx
+++ b/export_pr.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>Appendix 60</t>
   </si>
@@ -37,16 +37,16 @@
     <t>Office/Section :</t>
   </si>
   <si>
-    <t>FAD</t>
-  </si>
-  <si>
-    <t>PR No.:  2020-07-0231</t>
+    <t>LGCDD</t>
+  </si>
+  <si>
+    <t>PR No.:  2020-01-0021</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
-    <t>July 06, 2020</t>
+    <t>March 12, 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Responsibility Center Code : </t>
@@ -70,31 +70,14 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S1157</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>Vehicle Dashboard Camera
-* Recording Front View + Rear View Camera
-* Dual HD Recording
-* 4.3 inch Integrated Touchscreen
-* Night Vision
-* Collision Detection
-* 2.4GHZ WI-FI High Speed Sharing
-* Large Aperture, wide angle lens, more clarity
-* Emergency Recording</t>
-  </si>
-  <si>
-    <t>S1220</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Micro SD Card, 64GB
-</t>
+    <t>C001</t>
+  </si>
+  <si>
+    <t>Meals (Breakfast, AM Snacks, Lunch, PM Snacks)
+1st Quarter Meeting (February 14)
+AM Snacks
+Lunch
+PM Snacks</t>
   </si>
   <si>
     <t>Total</t>
@@ -103,7 +86,7 @@
     <t>Purpose:</t>
   </si>
   <si>
-    <t xml:space="preserve">For the care and maintenance of service vehicles and to monitor and record what takes place on the road especially during incidents. </t>
+    <t xml:space="preserve">2020 Regional Consultative Community Based Monitoring System Meeting   </t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -118,7 +101,7 @@
     <t>Printed Name :</t>
   </si>
   <si>
-    <t>DR. CARINA S. CRUZ</t>
+    <t>JAY-AR T. BELTRAN</t>
   </si>
   <si>
     <t>ARIEL O. IGLESIA</t>
@@ -127,7 +110,7 @@
     <t>Designation :</t>
   </si>
   <si>
-    <t>Chief, FAD</t>
+    <t xml:space="preserve">OIC - Chief, LGCDD </t>
   </si>
   <si>
     <t>Regional Director</t>
@@ -983,41 +966,29 @@
       <c r="A11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="14">
+        <v>0</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>19</v>
-      </c>
       <c r="D11" s="14">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E11" s="16">
+        <v>500</v>
+      </c>
+      <c r="F11" s="16">
         <v>7500</v>
       </c>
-      <c r="F11" s="16">
-        <v>37500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="18">
-        <v>5</v>
-      </c>
-      <c r="E12" s="20">
-        <v>1200</v>
-      </c>
-      <c r="F12" s="20">
-        <v>6000</v>
-      </c>
+    </row>
+    <row r="12" spans="1:6" customHeight="1" ht="30">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" customHeight="1" ht="30">
       <c r="A13" s="17"/>
@@ -1201,7 +1172,7 @@
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F35" s="24" t="str">
         <f>SUM(F11:F34)</f>
@@ -1210,9 +1181,11 @@
     </row>
     <row r="36" spans="1:6" customHeight="1" ht="15.75">
       <c r="A36" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="43"/>
+        <v>20</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="C36" s="43"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
@@ -1220,9 +1193,7 @@
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">
       <c r="A37" s="41"/>
-      <c r="B37" s="45" t="s">
-        <v>25</v>
-      </c>
+      <c r="B37" s="45"/>
       <c r="C37" s="45"/>
       <c r="D37" s="45"/>
       <c r="E37" s="45"/>
@@ -1247,18 +1218,18 @@
     <row r="40" spans="1:6" customHeight="1" ht="16.5">
       <c r="A40" s="25"/>
       <c r="B40" s="49" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C40" s="49"/>
       <c r="D40" s="50" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E40" s="50"/>
       <c r="F40" s="51"/>
     </row>
     <row r="41" spans="1:6" customHeight="1" ht="15.75">
       <c r="A41" s="26" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B41" s="52"/>
       <c r="C41" s="52"/>
@@ -1268,28 +1239,28 @@
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="15.75">
       <c r="A42" s="26" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B42" s="55" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C42" s="55"/>
       <c r="D42" s="56" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E42" s="56"/>
       <c r="F42" s="57"/>
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="20.25">
       <c r="A43" s="27" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C43" s="47"/>
       <c r="D43" s="58" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E43" s="58"/>
       <c r="F43" s="59"/>

--- a/export_pr.xlsx
+++ b/export_pr.xlsx
@@ -17,12 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>Appendix 60</t>
   </si>
   <si>
-    <t xml:space="preserve">PURCHASE REQUEST </t>
+    <t xml:space="preserve">PURCHASE ReEQUEST </t>
   </si>
   <si>
     <t>Entity Name:</t>
@@ -37,16 +37,16 @@
     <t>Office/Section :</t>
   </si>
   <si>
-    <t>LGCDD</t>
-  </si>
-  <si>
-    <t>PR No.:  2020-01-0021</t>
+    <t>LGMED</t>
+  </si>
+  <si>
+    <t>PR No.:  2021-05-0205</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
-    <t>March 12, 2020</t>
+    <t>May 28, 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Responsibility Center Code : </t>
@@ -70,14 +70,14 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>C001</t>
-  </si>
-  <si>
-    <t>Meals (Breakfast, AM Snacks, Lunch, PM Snacks)
-1st Quarter Meeting (February 14)
-AM Snacks
-Lunch
-PM Snacks</t>
+    <t>S2395</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>ID Jacket (Transparent, Silicon with lace, horizontal)
+sample</t>
   </si>
   <si>
     <t>Total</t>
@@ -86,7 +86,7 @@
     <t>Purpose:</t>
   </si>
   <si>
-    <t xml:space="preserve">2020 Regional Consultative Community Based Monitoring System Meeting   </t>
+    <t>SAMPLE</t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -101,7 +101,7 @@
     <t>Printed Name :</t>
   </si>
   <si>
-    <t>JAY-AR T. BELTRAN</t>
+    <t>DON AYER A. ABRAZALDO</t>
   </si>
   <si>
     <t>ARIEL O. IGLESIA</t>
@@ -110,7 +110,7 @@
     <t>Designation :</t>
   </si>
   <si>
-    <t xml:space="preserve">OIC - Chief, LGCDD </t>
+    <t>Chief, LGMED</t>
   </si>
   <si>
     <t>Regional Director</t>
@@ -317,6 +317,16 @@
       </left>
     </border>
     <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -342,16 +352,6 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -442,6 +442,84 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -459,84 +537,6 @@
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -841,56 +841,56 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="true" style="0"/>
+    <col min="1" max="1" width="15.28515625" customWidth="true" style="0"/>
     <col min="2" max="2" width="16" customWidth="true" style="0"/>
-    <col min="3" max="3" width="42.5546875" customWidth="true" style="0"/>
-    <col min="4" max="4" width="12.6640625" customWidth="true" style="0"/>
-    <col min="5" max="5" width="17.109375" customWidth="true" style="0"/>
-    <col min="6" max="6" width="18.33203125" customWidth="true" style="0"/>
+    <col min="3" max="3" width="42.5703125" customWidth="true" style="0"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true" style="0"/>
+    <col min="5" max="5" width="17.140625" customWidth="true" style="0"/>
+    <col min="6" max="6" width="18.28515625" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customHeight="1" ht="15.6">
+    <row r="1" spans="1:6" customHeight="1" ht="15.75">
       <c r="A1" s="1"/>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="30"/>
-    </row>
-    <row r="2" spans="1:6" customHeight="1" ht="18">
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" customHeight="1" ht="18.75">
       <c r="A2" s="1"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" customHeight="1" ht="17.4">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+    <row r="3" spans="1:6" customHeight="1" ht="18.75">
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
     </row>
     <row r="4" spans="1:6" customHeight="1" ht="18.75">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-    </row>
-    <row r="5" spans="1:6" customHeight="1" ht="15.6">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+    </row>
+    <row r="5" spans="1:6" customHeight="1" ht="15.75">
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
     </row>
     <row r="6" spans="1:6" customHeight="1" ht="21">
       <c r="A6" s="3" t="s">
@@ -900,11 +900,11 @@
         <v>3</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
     </row>
     <row r="7" spans="1:6" customHeight="1" ht="18">
       <c r="A7" s="5" t="s">
@@ -917,16 +917,16 @@
         <v>7</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="55" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" customHeight="1" ht="30.75">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="9" t="s">
         <v>10</v>
       </c>
@@ -935,51 +935,51 @@
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" customHeight="1" ht="16.5">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="34" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A10" s="37"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="14">
-        <v>0</v>
+      <c r="B11" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="14">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E11" s="16">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="F11" s="16">
-        <v>7500</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" customHeight="1" ht="30">
@@ -1172,7 +1172,7 @@
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F35" s="24" t="str">
         <f>SUM(F11:F34)</f>
@@ -1180,121 +1180,121 @@
       </c>
     </row>
     <row r="36" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A36" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="43" t="s">
+      <c r="A36" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="44"/>
+      <c r="B36" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="40"/>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A37" s="41"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="46"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="42"/>
     </row>
     <row r="38" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A38" s="41"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="46"/>
-    </row>
-    <row r="39" spans="1:6" customHeight="1" ht="15">
-      <c r="A39" s="42"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="48"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="42"/>
+    </row>
+    <row r="39" spans="1:6" customHeight="1" ht="15.75">
+      <c r="A39" s="38"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="43"/>
     </row>
     <row r="40" spans="1:6" customHeight="1" ht="16.5">
       <c r="A40" s="25"/>
-      <c r="B40" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="49"/>
-      <c r="D40" s="50" t="s">
+      <c r="B40" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="50"/>
-      <c r="F40" s="51"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="45"/>
+      <c r="F40" s="46"/>
     </row>
     <row r="41" spans="1:6" customHeight="1" ht="15.75">
       <c r="A41" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="54"/>
+        <v>25</v>
+      </c>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="49"/>
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="15.75">
       <c r="A42" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="55"/>
-      <c r="D42" s="56" t="s">
+      <c r="B42" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E42" s="56"/>
-      <c r="F42" s="57"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="29"/>
+      <c r="F42" s="30"/>
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="20.25">
       <c r="A43" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="47"/>
-      <c r="D43" s="58" t="s">
+      <c r="B43" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="58"/>
-      <c r="F43" s="59"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="32"/>
+      <c r="F43" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection password="DD3C" sheet="true" objects="false" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection password="91B5" sheet="true" objects="false" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:F39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:F42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:F43"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:F39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="D6:F6"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="69" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="71" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>

--- a/export_pr.xlsx
+++ b/export_pr.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>Appendix 60</t>
   </si>
@@ -40,10 +40,10 @@
     <t>FAD</t>
   </si>
   <si>
-    <t>PR No.:  2022-06-0258</t>
-  </si>
-  <si>
-    <t>June 23, 2022</t>
+    <t>PR No.:  2022-06-0025</t>
+  </si>
+  <si>
+    <t>June 28, 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Responsibility Center Code : </t>
@@ -74,19 +74,22 @@
   </si>
   <si>
     <t>100GB shared Hosting
-ff</t>
+hh</t>
   </si>
   <si>
     <t>₱20,000.00</t>
   </si>
   <si>
+    <t>₱0.00</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Purpose:</t>
   </si>
   <si>
-    <t>bgg</t>
+    <t>fffd</t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -971,13 +974,13 @@
         <v>18</v>
       </c>
       <c r="D11" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6" customHeight="1" ht="30">
@@ -1170,18 +1173,18 @@
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="24" t="s">
         <v>20</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:6" customHeight="1" ht="15.75">
       <c r="A36" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C36" s="39"/>
       <c r="D36" s="39"/>
@@ -1215,18 +1218,18 @@
     <row r="40" spans="1:6" customHeight="1" ht="16.5">
       <c r="A40" s="25"/>
       <c r="B40" s="44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C40" s="44"/>
       <c r="D40" s="45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E40" s="45"/>
       <c r="F40" s="46"/>
     </row>
     <row r="41" spans="1:6" customHeight="1" ht="15.75">
       <c r="A41" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B41" s="47"/>
       <c r="C41" s="47"/>
@@ -1236,28 +1239,28 @@
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="15.75">
       <c r="A42" s="26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42" s="28"/>
       <c r="D42" s="29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E42" s="29"/>
       <c r="F42" s="30"/>
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="20.25">
       <c r="A43" s="27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C43" s="31"/>
       <c r="D43" s="32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E43" s="32"/>
       <c r="F43" s="33"/>

--- a/export_pr.xlsx
+++ b/export_pr.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
   <si>
     <t>Appendix 60</t>
   </si>
@@ -40,10 +40,10 @@
     <t>FAD</t>
   </si>
   <si>
-    <t>PR No.:  2022-06-0025</t>
-  </si>
-  <si>
-    <t>June 28, 2022</t>
+    <t>PR No.:  2023-07-0328</t>
+  </si>
+  <si>
+    <t>July 26, 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Responsibility Center Code : </t>
@@ -67,29 +67,188 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S2298</t>
+    <t>S4486</t>
   </si>
   <si>
     <t>lot</t>
   </si>
   <si>
-    <t>100GB shared Hosting
-hh</t>
-  </si>
-  <si>
-    <t>₱20,000.00</t>
-  </si>
-  <si>
-    <t>₱0.00</t>
+    <t>Labor and Services
+Replace Aircon Belt
+Replace Alternator Belt</t>
+  </si>
+  <si>
+    <t>₱825.00</t>
+  </si>
+  <si>
+    <t>S4487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replace Idle Bearing
+</t>
+  </si>
+  <si>
+    <t>₱451.00</t>
+  </si>
+  <si>
+    <t>S4488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replace Upper  Ball and and Lower Ball Joint
+</t>
+  </si>
+  <si>
+    <t>₱3,366.00</t>
+  </si>
+  <si>
+    <t>S4489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replace tie rod bar and tie rod end
+</t>
+  </si>
+  <si>
+    <t>₱2,468.00</t>
+  </si>
+  <si>
+    <t>S4499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Align Front wheel
+</t>
+  </si>
+  <si>
+    <t>₱2,178.00</t>
+  </si>
+  <si>
+    <t>S4500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replace 3rd Brake Light
+</t>
+  </si>
+  <si>
+    <t>₱729.00</t>
+  </si>
+  <si>
+    <t>S4490</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>Parts to be replaced
+Aircon Belt</t>
+  </si>
+  <si>
+    <t>₱1,001.00</t>
+  </si>
+  <si>
+    <t>S4491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternator Belt
+</t>
+  </si>
+  <si>
+    <t>₱1,430.00</t>
+  </si>
+  <si>
+    <t>S4492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idler Bearing
+</t>
+  </si>
+  <si>
+    <t>S4493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Ball Joint
+</t>
+  </si>
+  <si>
+    <t>₱4,197.00</t>
+  </si>
+  <si>
+    <t>₱8,394.00</t>
+  </si>
+  <si>
+    <t>S4494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Ball Joint
+</t>
+  </si>
+  <si>
+    <t>₱3,268.00</t>
+  </si>
+  <si>
+    <t>₱6,536.00</t>
+  </si>
+  <si>
+    <t>S4495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tie Rod Bar and Tie Rod End
+</t>
+  </si>
+  <si>
+    <t>₱3,593.00</t>
+  </si>
+  <si>
+    <t>₱7,186.00</t>
+  </si>
+  <si>
+    <t>S4496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inner Wheel Bearing
+</t>
+  </si>
+  <si>
+    <t>₱3,344.00</t>
+  </si>
+  <si>
+    <t>₱6,688.00</t>
+  </si>
+  <si>
+    <t>S4497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outer Wheel Bearing
+</t>
+  </si>
+  <si>
+    <t>₱2,728.00</t>
+  </si>
+  <si>
+    <t>₱5,456.00</t>
+  </si>
+  <si>
+    <t>S4498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peanut Bulb
+</t>
+  </si>
+  <si>
+    <t>₱83.00</t>
+  </si>
+  <si>
+    <t>₱332.00</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
+    <t>₱47,491.00</t>
+  </si>
+  <si>
     <t>Purpose:</t>
   </si>
   <si>
-    <t>fffd</t>
+    <t>Repair and Maintenance for  service vehicle of the regional office (Isuzu Dmax CP2057)</t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -974,126 +1133,294 @@
         <v>18</v>
       </c>
       <c r="D11" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" customHeight="1" ht="30">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:6" customHeight="1" ht="30">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:6" customHeight="1" ht="30">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="1:6" customHeight="1" ht="30">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="1:6" customHeight="1" ht="30">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" spans="1:6" customHeight="1" ht="30">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" spans="1:6" customHeight="1" ht="30">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" spans="1:6" customHeight="1" ht="30">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-    </row>
-    <row r="20" spans="1:6" customHeight="1" ht="30">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-    </row>
-    <row r="21" spans="1:6" customHeight="1" ht="30">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-    </row>
-    <row r="22" spans="1:6" customHeight="1" ht="30">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-    </row>
-    <row r="23" spans="1:6" customHeight="1" ht="30">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-    </row>
-    <row r="24" spans="1:6" customHeight="1" ht="30">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-    </row>
-    <row r="25" spans="1:6" customHeight="1" ht="30">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
+      <c r="B12" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="18">
+        <v>1</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="18">
+        <v>1</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="18">
+        <v>1</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="18">
+        <v>1</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="18">
+        <v>1</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="18">
+        <v>1</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="18">
+        <v>2</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="18">
+        <v>2</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="18">
+        <v>2</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="18">
+        <v>2</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="18">
+        <v>2</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="18">
+        <v>4</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="26" spans="1:6" customHeight="1" ht="30">
       <c r="A26" s="17"/>
@@ -1173,18 +1500,18 @@
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="23" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:6" customHeight="1" ht="15.75">
       <c r="A36" s="36" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="C36" s="39"/>
       <c r="D36" s="39"/>
@@ -1218,18 +1545,18 @@
     <row r="40" spans="1:6" customHeight="1" ht="16.5">
       <c r="A40" s="25"/>
       <c r="B40" s="44" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="C40" s="44"/>
       <c r="D40" s="45" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="E40" s="45"/>
       <c r="F40" s="46"/>
     </row>
     <row r="41" spans="1:6" customHeight="1" ht="15.75">
       <c r="A41" s="26" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B41" s="47"/>
       <c r="C41" s="47"/>
@@ -1239,28 +1566,28 @@
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="15.75">
       <c r="A42" s="26" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="C42" s="28"/>
       <c r="D42" s="29" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="E42" s="29"/>
       <c r="F42" s="30"/>
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="20.25">
       <c r="A43" s="27" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C43" s="31"/>
       <c r="D43" s="32" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="E43" s="32"/>
       <c r="F43" s="33"/>
@@ -1296,7 +1623,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="68" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
+    <oddHeader>Department of the Interior and Local Government</oddHeader>
     <oddFooter/>
     <evenHeader/>
     <evenFooter/>
